--- a/ESP/data/event.xlsx
+++ b/ESP/data/event.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC3EC94-7DCD-4F59-A908-FA3652A12E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6CE71-1D3F-46B1-8B06-C48EE299B403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>ISEP</t>
   </si>
   <si>
-    <t>Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19</t>
-  </si>
-  <si>
     <t>Presidente del Comité Científico</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Universidad El Bosque y Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>CIVN2020 - Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,36 +953,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/ESP/data/event.xlsx
+++ b/ESP/data/event.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6CE71-1D3F-46B1-8B06-C48EE299B403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D1DA12-5937-4F6B-93C3-1ED094EAA35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,13 +58,13 @@
     <t>https://www.isep.es/congreso2020/#comite</t>
   </si>
   <si>
-    <t>http://www.civn2020.com/comite_es.php</t>
-  </si>
-  <si>
     <t>Universidad El Bosque y Universidad de los Andes</t>
   </si>
   <si>
     <t>CIVN2020 - Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.17605/OSF.IO/5BWNX</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,13 +959,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,10 +990,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{476042D2-6041-47D6-9870-1C6855D5E257}"/>
-    <hyperlink ref="E3" r:id="rId2" location="comite" xr:uid="{E618DBC4-ADE3-4D1E-B1D8-C3B3627F7F76}"/>
+    <hyperlink ref="E3" r:id="rId1" location="comite" xr:uid="{E618DBC4-ADE3-4D1E-B1D8-C3B3627F7F76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>